--- a/data/raw/WWT_definitions_norway.xlsx
+++ b/data/raw/WWT_definitions_norway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346ebfb30976329f/Projects/Papers/99_Thesis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346ebfb30976329f/Projects/Papers/03_Bayesian_Mixture_Toxicity/API_RQ_BN/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{97C86049-0877-4149-814A-824B0DBD7CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7921793-F172-4897-8759-518CA1EBFE5C}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="8_{97C86049-0877-4149-814A-824B0DBD7CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D7EDE7-1A20-4F60-A40A-D734E8B46DF6}"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="2595" windowWidth="16890" windowHeight="14820" xr2:uid="{C3D78A78-6A2C-4CB2-A141-EE640EC20648}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{C3D78A78-6A2C-4CB2-A141-EE640EC20648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>Name_EN</t>
   </si>
@@ -186,6 +181,9 @@
   </si>
   <si>
     <t>ingen</t>
+  </si>
+  <si>
+    <t>tertiary</t>
   </si>
 </sst>
 </file>
@@ -540,7 +538,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/raw/WWT_definitions_norway.xlsx
+++ b/data/raw/WWT_definitions_norway.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346ebfb30976329f/Projects/Papers/03_Bayesian_Mixture_Toxicity/API_RQ_BN/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="8_{97C86049-0877-4149-814A-824B0DBD7CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{77D7EDE7-1A20-4F60-A40A-D734E8B46DF6}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{97C86049-0877-4149-814A-824B0DBD7CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B4435D-65E2-4017-BC39-3F0438D4455A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{C3D78A78-6A2C-4CB2-A141-EE640EC20648}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/raw/WWT_definitions_norway.xlsx
+++ b/data/raw/WWT_definitions_norway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346ebfb30976329f/Projects/Papers/03_Bayesian_Mixture_Toxicity/API_RQ_BN/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{97C86049-0877-4149-814A-824B0DBD7CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B4435D-65E2-4017-BC39-3F0438D4455A}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{97C86049-0877-4149-814A-824B0DBD7CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B4435D-65E2-4017-BC39-3F0438D4455A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{C3D78A78-6A2C-4CB2-A141-EE640EC20648}"/>
+    <workbookView xWindow="30612" yWindow="-6792" windowWidth="17496" windowHeight="30336" xr2:uid="{C3D78A78-6A2C-4CB2-A141-EE640EC20648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,6 +236,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,7 +542,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/raw/WWT_definitions_norway.xlsx
+++ b/data/raw/WWT_definitions_norway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346ebfb30976329f/Projects/Papers/03_Bayesian_Mixture_Toxicity/API_RQ_BN/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/346ebfb30976329f/Projects/Papers/03_Bayesian_Mixture_Toxicity/API_RQ_BN_IEAM_revision/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{97C86049-0877-4149-814A-824B0DBD7CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B4435D-65E2-4017-BC39-3F0438D4455A}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="8_{97C86049-0877-4149-814A-824B0DBD7CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59D8158-F2F5-4CE0-B42A-7BA940EC7E0D}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-6792" windowWidth="17496" windowHeight="30336" xr2:uid="{C3D78A78-6A2C-4CB2-A141-EE640EC20648}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{C3D78A78-6A2C-4CB2-A141-EE640EC20648}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>Name_EN</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>tertiary</t>
+  </si>
+  <si>
+    <t>sand_trap</t>
   </si>
 </sst>
 </file>
@@ -236,10 +239,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,7 +541,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E22"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,16 +572,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -590,10 +589,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -607,53 +606,53 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,7 +663,7 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -675,36 +674,36 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,27 +725,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -755,15 +754,15 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -777,44 +776,44 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -828,10 +827,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -840,15 +839,15 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -857,15 +856,15 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -879,10 +878,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -896,16 +895,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -913,25 +912,25 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{78341E84-4075-44BF-B278-5326FEC4268F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
-      <sortCondition ref="C1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
